--- a/Best_Branches_ML.xlsx
+++ b/Best_Branches_ML.xlsx
@@ -503,7 +503,7 @@
         <v>1581206.333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>59483715.97333333</v>
+        <v>59483715.97333334</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
